--- a/Diabetes data.xlsx
+++ b/Diabetes data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{085BA41C-9463-4AA3-AA63-2A3C210AD01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC488BEA-ABE6-449C-A83C-64673F0F3985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B76BA51-2404-40AD-955F-3F13810A0B35}"/>
   </bookViews>
@@ -50,31 +50,31 @@
     <t>% obs</t>
   </si>
   <si>
-    <t>56 - 74</t>
-  </si>
-  <si>
-    <t>74 - 92</t>
-  </si>
-  <si>
-    <t>93 - 110</t>
-  </si>
-  <si>
-    <t>111 - 128</t>
-  </si>
-  <si>
-    <t>129 - 146</t>
-  </si>
-  <si>
-    <t>147 - 164</t>
-  </si>
-  <si>
-    <t>165 - 182</t>
-  </si>
-  <si>
-    <t>183 - 199</t>
-  </si>
-  <si>
     <t>Pessoas</t>
+  </si>
+  <si>
+    <t>56 até 74</t>
+  </si>
+  <si>
+    <t>74 até 92</t>
+  </si>
+  <si>
+    <t>93 até 110</t>
+  </si>
+  <si>
+    <t>111 até 128</t>
+  </si>
+  <si>
+    <t>129 até 146</t>
+  </si>
+  <si>
+    <t>147 até 164</t>
+  </si>
+  <si>
+    <t>165 até 182</t>
+  </si>
+  <si>
+    <t>183 até 199</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>22</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>187</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>176</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>117</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>69</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>51</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>35</v>
